--- a/杰理相关/FN3/TestCaseForLED-王福星.xlsx
+++ b/杰理相关/FN3/TestCaseForLED-王福星.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseForLED-王福星" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>耳机LED功能_测试用例</t>
     </r>
     <r>
@@ -38,7 +44,6 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="黑体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（1.单IO控制单灯等；双IO控制双灯，单IO控制双灯；2；PWM控制灯效，呼吸等，快闪，慢闪；）</t>
@@ -73,6 +78,328 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>双耳灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_01</t>
+  </si>
+  <si>
+    <t>充电状态</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>1.双耳处于充电状态
+2.双耳定义了充电灯效</t>
+  </si>
+  <si>
+    <t>1.双耳入仓进入充电状态</t>
+  </si>
+  <si>
+    <t>1.可以看到充电状态的灯效</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>EAR_LED_02</t>
+  </si>
+  <si>
+    <t>充满电状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于充电状态
+2.双耳定义了充满电灯效</t>
+  </si>
+  <si>
+    <t>1.双耳入仓进入充电状态
+2.等待机器充满电</t>
+  </si>
+  <si>
+    <t>1.可以看到充满电状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_03</t>
+  </si>
+  <si>
+    <t>蓝牙休眠状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于充电状态
+2.双耳定义了休眠灯效</t>
+  </si>
+  <si>
+    <t>1.双耳出仓进入开机状态
+2.等待机器进入休眠状态</t>
+  </si>
+  <si>
+    <t>1.可以看到蓝牙休眠状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_04</t>
+  </si>
+  <si>
+    <t>开机状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了开机灯效</t>
+  </si>
+  <si>
+    <t>1.双耳出仓进入开机状态</t>
+  </si>
+  <si>
+    <t>1.可以看到开机状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_05</t>
+  </si>
+  <si>
+    <t>关机状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于关机状态
+2.双耳定义了关机灯效</t>
+  </si>
+  <si>
+    <t>1.双耳通过触摸按键进入关机</t>
+  </si>
+  <si>
+    <t>1.可以看到关机状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_06</t>
+  </si>
+  <si>
+    <t>回连状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了回连灯效
+3.TWS已经配对，且有经典蓝牙连接记录</t>
+  </si>
+  <si>
+    <t>1.双耳出仓开机自动回连</t>
+  </si>
+  <si>
+    <t>1.可以看到回连状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_07</t>
+  </si>
+  <si>
+    <t>配对状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了配对灯效
+3.双耳无配对记录
+4.双耳定义了配对方式（比如自动配对）</t>
+  </si>
+  <si>
+    <t>1.双耳出仓开机自动配对</t>
+  </si>
+  <si>
+    <t>EAR_LED_08</t>
+  </si>
+  <si>
+    <t>已连接状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了连接灯效</t>
+  </si>
+  <si>
+    <t>1.耳机出仓开机直接手动连接蓝牙</t>
+  </si>
+  <si>
+    <t>1.可以看到已连接状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_09</t>
+  </si>
+  <si>
+    <t>播放状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了播放灯效</t>
+  </si>
+  <si>
+    <t>1.耳机连接经典蓝牙并播放歌曲</t>
+  </si>
+  <si>
+    <t>1.可以看到播放状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_10</t>
+  </si>
+  <si>
+    <t>来电状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于蓝牙连接状态
+2.双耳定义了来电灯效</t>
+  </si>
+  <si>
+    <t>1.使用另一台测试手机拨打电话</t>
+  </si>
+  <si>
+    <t>1.可以看到来电状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_11</t>
+  </si>
+  <si>
+    <t>通话状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于蓝牙连接状态
+2.双耳定义了通话灯效</t>
+  </si>
+  <si>
+    <t>1.使用另一台测试手机进行通话</t>
+  </si>
+  <si>
+    <t>1.可以看到通话状态的灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_12</t>
+  </si>
+  <si>
+    <t>低电状态</t>
+  </si>
+  <si>
+    <t>1.双耳处于开机状态
+2.双耳定义了低电灯效</t>
+  </si>
+  <si>
+    <t>1.双耳连接经典蓝牙后，把音乐音量放到最大声，使用到低电状态</t>
+  </si>
+  <si>
+    <t>1.可以看到低电状态的灯效</t>
+  </si>
+  <si>
+    <t>单耳灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_13</t>
+  </si>
+  <si>
+    <t>1.单耳处于充电状态
+2.单耳定义了充电灯效</t>
+  </si>
+  <si>
+    <t>1.单耳入仓进入充电状态</t>
+  </si>
+  <si>
+    <t>EAR_LED_14</t>
+  </si>
+  <si>
+    <t>1.单耳处于充电状态
+2.单耳定义了充满电灯效</t>
+  </si>
+  <si>
+    <t>1.单耳入仓进入充电状态
+2.等待机器充满电</t>
+  </si>
+  <si>
+    <t>EAR_LED_15</t>
+  </si>
+  <si>
+    <t>1.单耳处于充电状态
+2.单耳定义了休眠灯效</t>
+  </si>
+  <si>
+    <t>1.单耳出仓进入开机状态
+2.等待机器进入休眠状态</t>
+  </si>
+  <si>
+    <t>EAR_LED_16</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了开机灯效</t>
+  </si>
+  <si>
+    <t>1.单耳出仓进入开机状态</t>
+  </si>
+  <si>
+    <t>EAR_LED_17</t>
+  </si>
+  <si>
+    <t>1.单耳处于关机状态
+2.单耳定义了关机灯效</t>
+  </si>
+  <si>
+    <t>1.单耳通过触摸按键进入关机</t>
+  </si>
+  <si>
+    <t>EAR_LED_18</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了回连灯效
+3.TWS已经配对，且有经典蓝牙连接记录</t>
+  </si>
+  <si>
+    <t>1.单耳出仓开机自动回连</t>
+  </si>
+  <si>
+    <t>EAR_LED_19</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了配对灯效
+3.单耳无配对记录
+4.单耳定义了配对方式（比如自动配对）</t>
+  </si>
+  <si>
+    <t>1.单耳出仓开机自动配对</t>
+  </si>
+  <si>
+    <t>EAR_LED_20</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了连接灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_21</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了播放灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_22</t>
+  </si>
+  <si>
+    <t>1.单耳处于蓝牙连接状态
+2.单耳定义了来电灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_23</t>
+  </si>
+  <si>
+    <t>1.单耳处于蓝牙连接状态
+2.单耳定义了通话灯效</t>
+  </si>
+  <si>
+    <t>EAR_LED_24</t>
+  </si>
+  <si>
+    <t>1.单耳处于开机状态
+2.单耳定义了低电灯效</t>
+  </si>
+  <si>
+    <t>1.单耳连接经典蓝牙后，把音乐音量放到最大声，使用到低电状态</t>
+  </si>
+  <si>
+    <t>后续遇到客户个性化需求测试用例可以增加</t>
   </si>
 </sst>
 </file>
@@ -85,7 +412,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -106,15 +433,19 @@
       <b/>
       <sz val="16"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -272,11 +603,10 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,70 +938,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,74 +1013,77 @@
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +1101,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,14 +1645,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="79" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1348,10 +1710,768 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:9">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:9">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:9">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:9">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:9">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="71.25" spans="1:9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="85.5" spans="1:9">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="1:9">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:9">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:9">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="57" spans="1:9">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="42.75" spans="1:9">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" ht="42.75" spans="1:9">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:9">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="42.75" spans="1:9">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:9">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:9">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="71.25" spans="1:9">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="85.5" spans="1:9">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="42.75" spans="1:9">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" spans="1:9">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="57" spans="1:9">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="57" spans="1:9">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="42.75" spans="1:9">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="9:9">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="9:9">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="9:9">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A29:J29"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I29 I4:I16 I17:I28 I30:I33">
+      <formula1>"通过,不通过,未测试,无效"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
